--- a/biology/Zoologie/Barbarophryne_brongersmai/Barbarophryne_brongersmai.xlsx
+++ b/biology/Zoologie/Barbarophryne_brongersmai/Barbarophryne_brongersmai.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Barbarophryne brongersmai, unique représentant du genre Barbarophryne, est une espèce d'amphibiens de la famille des Bufonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbarophryne brongersmai, unique représentant du genre Barbarophryne, est une espèce d'amphibiens de la famille des Bufonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre jusqu'à 1 600 m d'altitude du centre du Maroc au Nord du Sahara occidental[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre jusqu'à 1 600 m d'altitude du centre du Maroc au Nord du Sahara occidental.
 Sa présence est incertaine en Algérie.
 </t>
         </is>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 41 à 51 mm et la femelle 48 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 41 à 51 mm et la femelle 48 mm.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Leo Daniël Brongersma[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Leo Daniël Brongersma.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Beukema, de Pous, Donaire-Barroso, Bogaerts, Garcia-Porta, Escoriza, Arribas, El Mouden &amp; Carranza, 2013 : Review of the systematics, distribution, biogeography and natural history of Moroccan amphibians. Zootaxa, no 3661, p. 1–60.
 Hoogmoed, 1972 : On a new species of toad from Southern Morocco. Zoologische Mededelingen, vol. 47, p. 49-67 (texte intégral).</t>
